--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{812721CB-6ACE-8244-A403-B1C3B5062402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E985D0-EF9A-D34C-84BE-9FEB35CED884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Шалом Эдуард</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,18 +168,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,16 +513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -512,10 +533,12 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>45170</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2">
+        <v>45173</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -524,10 +547,12 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -536,10 +561,12 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -548,10 +575,12 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -560,10 +589,12 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -572,10 +603,12 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -584,10 +617,12 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -596,10 +631,12 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -608,10 +645,12 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -620,10 +659,12 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -632,10 +673,12 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -644,10 +687,12 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -656,10 +701,12 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -668,10 +715,12 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -680,10 +729,12 @@
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -692,10 +743,12 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -704,10 +757,12 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -716,10 +771,12 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -728,10 +785,12 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -740,10 +799,12 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -752,10 +813,12 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -764,10 +827,12 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1"/>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -776,10 +841,12 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -788,10 +855,12 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -800,22 +869,37 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E985D0-EF9A-D34C-84BE-9FEB35CED884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB788EF-246C-5E40-A289-9CA85567C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Шалом Эдуард</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Казачкова Анна</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -183,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -192,13 +201,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +536,7 @@
     <col min="4" max="4" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +549,11 @@
       <c r="D1" s="2">
         <v>45173</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="7">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -553,8 +566,11 @@
       <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -567,8 +583,11 @@
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -581,8 +600,11 @@
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -595,8 +617,11 @@
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -609,8 +634,11 @@
       <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -623,8 +651,11 @@
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -637,8 +668,11 @@
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -651,8 +685,11 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -665,8 +702,11 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -679,8 +719,11 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -693,8 +736,11 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -707,8 +753,11 @@
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -721,8 +770,11 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -735,8 +787,11 @@
       <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -749,8 +804,11 @@
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -763,8 +821,11 @@
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -777,8 +838,11 @@
       <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -791,8 +855,11 @@
       <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -805,8 +872,11 @@
       <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -819,8 +889,11 @@
       <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -833,8 +906,11 @@
       <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -847,8 +923,11 @@
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -861,8 +940,11 @@
       <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -875,8 +957,11 @@
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -889,8 +974,11 @@
       <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -898,6 +986,26 @@
         <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
         <v>27</v>
       </c>
     </row>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB788EF-246C-5E40-A289-9CA85567C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0B3AD-238A-374F-BF77-831D35B0535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
     <col min="4" max="4" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +552,11 @@
       <c r="E1" s="7">
         <v>45174</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="7">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -569,8 +572,11 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -586,8 +592,11 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -603,8 +612,11 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -620,8 +632,11 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -637,8 +652,11 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -654,8 +672,11 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -671,8 +692,11 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -688,8 +712,11 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -705,8 +732,11 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -722,8 +752,11 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -739,8 +772,11 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -756,8 +792,11 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -773,8 +812,11 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -790,8 +832,11 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -807,8 +852,11 @@
       <c r="E16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -824,8 +872,11 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -841,8 +892,12 @@
       <c r="E18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f>+J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -858,8 +913,11 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -875,8 +933,11 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -892,8 +953,11 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -909,8 +973,11 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -926,8 +993,11 @@
       <c r="E23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -943,8 +1013,11 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -960,8 +1033,11 @@
       <c r="E25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -977,8 +1053,11 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -991,8 +1070,11 @@
       <c r="E27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1007,6 +1089,9 @@
       </c>
       <c r="E28" t="s">
         <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0B3AD-238A-374F-BF77-831D35B0535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EF705-AEAC-204C-80DD-85FCEE04C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +132,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
   </si>
 </sst>
 </file>
@@ -192,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +213,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,4 +1104,347 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1026000-6AEF-9548-9667-9B2393ABF25D}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EF705-AEAC-204C-80DD-85FCEE04C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C84438-BFDD-8C47-AF94-D16D976DE209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>пр1</t>
+  </si>
+  <si>
+    <t>пр2</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -213,9 +219,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +546,7 @@
     <col min="4" max="4" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +565,14 @@
       <c r="F1" s="7">
         <v>45176</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="7">
+        <v>45183</v>
+      </c>
+      <c r="H1" s="7">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -582,8 +591,14 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -602,8 +617,14 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -622,8 +643,14 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -642,8 +669,14 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -662,8 +695,14 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -682,8 +721,14 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -702,8 +747,14 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -722,8 +773,14 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -742,8 +799,14 @@
       <c r="F10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -762,8 +825,14 @@
       <c r="F11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -782,8 +851,14 @@
       <c r="F12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -802,8 +877,14 @@
       <c r="F13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -822,8 +903,14 @@
       <c r="F14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -842,8 +929,14 @@
       <c r="F15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -862,8 +955,14 @@
       <c r="F16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -882,8 +981,14 @@
       <c r="F17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -899,12 +1004,17 @@
       <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="F18">
-        <f>+J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -923,8 +1033,14 @@
       <c r="F19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -943,8 +1059,14 @@
       <c r="F20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -963,8 +1085,14 @@
       <c r="F21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -983,8 +1111,14 @@
       <c r="F22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1003,8 +1137,14 @@
       <c r="F23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1021,10 +1161,16 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1043,8 +1189,14 @@
       <c r="F25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1063,8 +1215,14 @@
       <c r="F26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1080,8 +1238,14 @@
       <c r="F27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1099,6 +1263,12 @@
       </c>
       <c r="F28" t="s">
         <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1108,19 +1278,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1026000-6AEF-9548-9667-9B2393ABF25D}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,11 +1301,16 @@
       <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1144,9 +1320,16 @@
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1156,9 +1339,16 @@
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1168,9 +1358,16 @@
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1179,8 +1376,13 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1190,9 +1392,16 @@
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1202,9 +1411,16 @@
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1214,9 +1430,16 @@
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1226,9 +1449,16 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1236,9 +1466,14 @@
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1248,9 +1483,16 @@
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1259,8 +1501,11 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1268,9 +1513,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1280,9 +1532,16 @@
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1292,9 +1551,16 @@
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1305,8 +1571,11 @@
         <v>27</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1316,9 +1585,16 @@
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1328,9 +1604,16 @@
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1340,9 +1623,16 @@
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1352,9 +1642,16 @@
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1363,8 +1660,11 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1374,9 +1674,16 @@
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1386,9 +1693,16 @@
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1398,19 +1712,35 @@
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1421,28 +1751,43 @@
         <v>27</v>
       </c>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C84438-BFDD-8C47-AF94-D16D976DE209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700FA1E-E4D7-F049-B87E-12B63C43A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Лабы" sheetId="2" r:id="rId2"/>
+    <sheet name="Практические" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Arkadiy Schneider</author>
+  </authors>
+  <commentList>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{CB4795BC-0C39-C042-8166-CA8D0AA4F196}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arkadiy Schneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Сдал 1-4
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -134,26 +179,108 @@
     <t>=</t>
   </si>
   <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
     <t>пр1</t>
   </si>
   <si>
     <t>пр2</t>
+  </si>
+  <si>
+    <t>пр3</t>
+  </si>
+  <si>
+    <t>пр4</t>
+  </si>
+  <si>
+    <t>пр5</t>
+  </si>
+  <si>
+    <t>пр6</t>
+  </si>
+  <si>
+    <t>пр7</t>
+  </si>
+  <si>
+    <t>пр8</t>
+  </si>
+  <si>
+    <t>пр9</t>
+  </si>
+  <si>
+    <t>пр10</t>
+  </si>
+  <si>
+    <t>пр11</t>
+  </si>
+  <si>
+    <t>пр12</t>
+  </si>
+  <si>
+    <t>пр13</t>
+  </si>
+  <si>
+    <t>пр14</t>
+  </si>
+  <si>
+    <t>пр15</t>
+  </si>
+  <si>
+    <t>пр16</t>
+  </si>
+  <si>
+    <t>пр17</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Лаб 1 (3)</t>
+  </si>
+  <si>
+    <t>Лаб 2 (3)</t>
+  </si>
+  <si>
+    <t>Зачет (15)</t>
+  </si>
+  <si>
+    <t>Лаб 5 (5)</t>
+  </si>
+  <si>
+    <t>Лаб 4 (10)</t>
+  </si>
+  <si>
+    <t>Лаб 3 (15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,17 +314,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -211,14 +327,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,20 +653,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,25 +681,28 @@
       <c r="D1" s="2">
         <v>45173</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="2">
         <v>45174</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="2">
         <v>45176</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="2">
         <v>45183</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="2">
         <v>45184</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -585,25 +710,28 @@
       <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -611,25 +739,28 @@
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -637,25 +768,28 @@
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -663,25 +797,28 @@
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -689,25 +826,28 @@
       <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -715,25 +855,28 @@
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -741,25 +884,28 @@
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -767,25 +913,28 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -793,25 +942,28 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -819,25 +971,28 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -845,25 +1000,28 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -871,25 +1029,28 @@
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -897,25 +1058,28 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -923,25 +1087,28 @@
       <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -949,25 +1116,28 @@
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -975,25 +1145,28 @@
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1001,25 +1174,28 @@
       <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -1027,25 +1203,28 @@
       <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
@@ -1053,25 +1232,28 @@
       <c r="D20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -1079,25 +1261,28 @@
       <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1105,25 +1290,28 @@
       <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1131,25 +1319,28 @@
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -1157,25 +1348,28 @@
       <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1183,95 +1377,111 @@
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+    <sortCondition ref="B1:B28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1281,17 +1491,23 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,273 +1515,265 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -1574,222 +1782,1226 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="7"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+    <sortCondition ref="B1:B28"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="3">
+        <f>SUM(C2:S2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="3">
+        <f>SUM(C3:S3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="3">
+        <f>SUM(C4:S4)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="3">
+        <f>SUM(C5:S5)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="3">
+        <f>SUM(C6:S6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="3">
+        <f>SUM(C7:S7)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="3">
+        <f>SUM(C8:S8)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="3">
+        <f>SUM(C9:S9)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="3">
+        <f>SUM(C10:S10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="3">
+        <f>SUM(C11:S11)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="3">
+        <f>SUM(C12:S12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="3">
+        <f>SUM(C13:S13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="3">
+        <f>SUM(C14:S14)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="3">
+        <f>SUM(C15:S15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="3">
+        <f>SUM(C16:S16)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="3">
+        <f>SUM(C17:S17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="3">
+        <f>SUM(C18:S18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="3">
+        <f>SUM(C19:S19)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="3">
+        <f>SUM(C20:S20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="3">
+        <f>SUM(C21:S21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="3">
+        <f>SUM(C22:S22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="3">
+        <f>SUM(C23:S23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="3">
+        <f>SUM(C24:S24)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="3">
+        <f>SUM(C25:S25)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="3">
+        <f>SUM(C26:S26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="3">
+        <f>SUM(C27:S27)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="3">
+        <f>SUM(C28:S28)</f>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T28">
+    <sortCondition ref="B1:B28"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700FA1E-E4D7-F049-B87E-12B63C43A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE71BAB7-47A8-0D4C-ACFA-E5D2E353A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -330,13 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +662,7 @@
     <col min="10" max="15" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,8 +690,11 @@
       <c r="I1" s="2">
         <v>45185</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="5">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -725,8 +722,11 @@
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -754,8 +754,11 @@
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -783,8 +786,11 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -812,8 +818,11 @@
       <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -841,8 +850,11 @@
       <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -870,8 +882,11 @@
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -899,8 +914,11 @@
       <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -928,8 +946,11 @@
       <c r="I9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -957,8 +978,11 @@
       <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -986,8 +1010,11 @@
       <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1015,8 +1042,11 @@
       <c r="I12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1044,8 +1074,11 @@
       <c r="I13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1073,8 +1106,11 @@
       <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1102,8 +1138,11 @@
       <c r="I15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1131,8 +1170,11 @@
       <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1160,8 +1202,11 @@
       <c r="I17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1189,8 +1234,11 @@
       <c r="I18" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1218,8 +1266,11 @@
       <c r="I19" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1247,8 +1298,11 @@
       <c r="I20" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1276,8 +1330,11 @@
       <c r="I21" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1305,8 +1362,11 @@
       <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1334,8 +1394,11 @@
       <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1363,8 +1426,11 @@
       <c r="I24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1392,8 +1458,11 @@
       <c r="I25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1421,8 +1490,11 @@
       <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1448,8 +1520,11 @@
       <c r="I27" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1475,6 +1550,9 @@
         <v>27</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1529,10 +1607,10 @@
       <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1549,7 +1627,6 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1566,7 +1643,6 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1581,7 +1657,6 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1598,7 +1673,6 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1615,7 +1689,6 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1632,7 +1705,6 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1649,7 +1721,6 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1666,7 +1737,6 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1683,7 +1753,6 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1700,7 +1769,6 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1717,7 +1785,6 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1734,7 +1801,6 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1751,7 +1817,6 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1766,7 +1831,6 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1783,9 +1847,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1800,9 +1863,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1817,9 +1879,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1832,9 +1893,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1847,9 +1907,8 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1864,9 +1923,8 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1881,9 +1939,8 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1896,9 +1953,8 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1913,9 +1969,8 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1930,9 +1985,8 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1947,9 +2001,8 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1964,9 +2017,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1981,7 +2033,6 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
@@ -1996,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2067,7 +2118,7 @@
       <c r="S1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2104,7 +2155,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="3">
-        <f>SUM(C2:S2)</f>
+        <f t="shared" ref="T2:T28" si="0">SUM(C2:S2)</f>
         <v>12</v>
       </c>
     </row>
@@ -2139,7 +2190,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="3">
-        <f>SUM(C3:S3)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2174,7 +2225,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="3">
-        <f>SUM(C4:S4)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2211,7 +2262,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="3">
-        <f>SUM(C5:S5)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2246,7 +2297,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="3">
-        <f>SUM(C6:S6)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2283,7 +2334,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="3">
-        <f>SUM(C7:S7)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2318,7 +2369,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="3">
-        <f>SUM(C8:S8)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2353,7 +2404,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="3">
-        <f>SUM(C9:S9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2386,7 +2437,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="3">
-        <f>SUM(C10:S10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2419,7 +2470,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="3">
-        <f>SUM(C11:S11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2456,7 +2507,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="3">
-        <f>SUM(C12:S12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2491,7 +2542,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="3">
-        <f>SUM(C13:S13)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2526,7 +2577,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="3">
-        <f>SUM(C14:S14)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2555,7 +2606,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="3">
-        <f>SUM(C15:S15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2643,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="3">
-        <f>SUM(C16:S16)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2625,7 +2676,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="3">
-        <f>SUM(C17:S17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2654,7 +2705,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="3">
-        <f>SUM(C18:S18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2687,7 +2738,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="3">
-        <f>SUM(C19:S19)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2718,7 +2769,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="3">
-        <f>SUM(C20:S20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2747,7 +2798,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="3">
-        <f>SUM(C21:S21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2784,7 +2835,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="3">
-        <f>SUM(C22:S22)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2813,7 +2864,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="3">
-        <f>SUM(C23:S23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2850,7 +2901,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="3">
-        <f>SUM(C24:S24)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2887,7 +2938,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="3">
-        <f>SUM(C25:S25)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2924,7 +2975,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="3">
-        <f>SUM(C26:S26)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2957,7 +3008,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="3">
-        <f>SUM(C27:S27)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2992,7 +3043,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="3">
-        <f>SUM(C28:S28)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE71BAB7-47A8-0D4C-ACFA-E5D2E353A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B68834-414F-234F-B352-002FB9414271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,11 +658,11 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="10.83203125" style="4"/>
+    <col min="4" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,11 +690,14 @@
       <c r="I1" s="2">
         <v>45185</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="2">
         <v>45188</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -722,11 +725,14 @@
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -754,11 +760,14 @@
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -786,11 +795,14 @@
       <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -818,11 +830,14 @@
       <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -850,11 +865,14 @@
       <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -882,11 +900,14 @@
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -914,11 +935,14 @@
       <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -946,11 +970,14 @@
       <c r="I9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -978,11 +1005,14 @@
       <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1010,11 +1040,14 @@
       <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1042,11 +1075,14 @@
       <c r="I12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1074,11 +1110,14 @@
       <c r="I13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1106,11 +1145,14 @@
       <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1138,11 +1180,14 @@
       <c r="I15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1170,11 +1215,14 @@
       <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1202,11 +1250,14 @@
       <c r="I17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1234,11 +1285,14 @@
       <c r="I18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1266,11 +1320,14 @@
       <c r="I19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1298,11 +1355,14 @@
       <c r="I20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1330,11 +1390,14 @@
       <c r="I21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1362,11 +1425,14 @@
       <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1394,11 +1460,14 @@
       <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1426,11 +1495,14 @@
       <c r="I24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1458,11 +1530,14 @@
       <c r="I25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1490,11 +1565,14 @@
       <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1520,11 +1598,14 @@
       <c r="I27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1552,8 +1633,11 @@
       <c r="I28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>27</v>
+      <c r="J28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1653,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2047,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2821,8 +2905,12 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2836,7 +2924,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B68834-414F-234F-B352-002FB9414271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290AD33-9600-6149-BF2B-2C186AB2F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A3" zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
     <col min="12" max="15" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,8 +696,11 @@
       <c r="K1" s="2">
         <v>45190</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="5">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -731,8 +734,11 @@
       <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -766,8 +772,11 @@
       <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -801,8 +810,11 @@
       <c r="K4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -836,8 +848,11 @@
       <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -871,8 +886,11 @@
       <c r="K6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -906,8 +924,11 @@
       <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -941,8 +962,11 @@
       <c r="K8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -976,8 +1000,11 @@
       <c r="K9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1011,8 +1038,11 @@
       <c r="K10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1046,8 +1076,11 @@
       <c r="K11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1081,8 +1114,11 @@
       <c r="K12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1116,8 +1152,11 @@
       <c r="K13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1151,8 +1190,11 @@
       <c r="K14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1186,8 +1228,11 @@
       <c r="K15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1221,8 +1266,11 @@
       <c r="K16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1256,8 +1304,11 @@
       <c r="K17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1280,19 +1331,22 @@
         <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1326,8 +1380,11 @@
       <c r="K19" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1361,8 +1418,11 @@
       <c r="K20" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1396,8 +1456,11 @@
       <c r="K21" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1431,8 +1494,11 @@
       <c r="K22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1466,8 +1532,11 @@
       <c r="K23" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1501,8 +1570,11 @@
       <c r="K24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1536,8 +1608,11 @@
       <c r="K25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1571,8 +1646,11 @@
       <c r="K26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1604,8 +1682,11 @@
       <c r="K27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1638,6 +1719,9 @@
       </c>
       <c r="K28" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2131,16 +2215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2225,22 +2309,24 @@
       <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="3">
         <f t="shared" ref="T2:T28" si="0">SUM(C2:S2)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -2259,23 +2345,25 @@
       <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
       <c r="T3" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -2295,22 +2383,26 @@
         <v>3</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2332,22 +2424,26 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
       <c r="T5" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -2366,23 +2462,29 @@
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -2404,22 +2506,26 @@
       <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
       <c r="T7" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -2438,23 +2544,25 @@
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -2473,23 +2581,29 @@
       <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -2505,24 +2619,30 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -2538,24 +2658,30 @@
       <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -2577,22 +2703,26 @@
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
       <c r="T12" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2612,22 +2742,26 @@
       <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -2646,23 +2780,25 @@
       <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2673,25 +2809,27 @@
         <v>5</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -2713,22 +2851,24 @@
       <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2746,19 +2886,19 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2771,26 +2911,30 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -2808,22 +2952,24 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
       <c r="T19" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -2836,25 +2982,29 @@
       <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
       <c r="T20" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -2868,19 +3018,19 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
       <c r="T21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2905,23 +3055,23 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2938,19 +3088,19 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
       <c r="T23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2975,22 +3125,26 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
       <c r="T24" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -3012,22 +3166,26 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
       <c r="T25" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -3049,22 +3207,26 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
       <c r="T26" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -3082,22 +3244,26 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
       <c r="T27" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -3116,23 +3282,29 @@
       <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
       <c r="T28" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1290AD33-9600-6149-BF2B-2C186AB2F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E876369-929A-BF41-AFFA-7F1995A73338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -291,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,11 +314,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -331,6 +344,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,10 +678,11 @@
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.83203125" style="4"/>
+    <col min="12" max="13" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,14 +713,17 @@
       <c r="J1" s="2">
         <v>45188</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="6">
         <v>45190</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="2">
         <v>45191</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -731,14 +754,17 @@
       <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -769,14 +795,17 @@
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -807,14 +836,17 @@
       <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -845,14 +877,17 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -883,14 +918,17 @@
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -921,14 +959,17 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -959,14 +1000,17 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -997,14 +1041,17 @@
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1035,14 +1082,17 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1073,14 +1123,17 @@
       <c r="J11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1111,14 +1164,17 @@
       <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1149,14 +1205,17 @@
       <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1187,14 +1246,17 @@
       <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1225,14 +1287,17 @@
       <c r="J15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1263,14 +1328,17 @@
       <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1301,14 +1369,17 @@
       <c r="J17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1339,14 +1410,17 @@
       <c r="J18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1377,14 +1451,17 @@
       <c r="J19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1415,14 +1492,17 @@
       <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1453,14 +1533,17 @@
       <c r="J21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1491,14 +1574,17 @@
       <c r="J22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1529,14 +1615,17 @@
       <c r="J23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="K23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1567,14 +1656,17 @@
       <c r="J24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1605,14 +1697,17 @@
       <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1643,14 +1738,17 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1679,14 +1777,17 @@
       <c r="J27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1717,10 +1818,13 @@
       <c r="J28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2215,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E876369-929A-BF41-AFFA-7F1995A73338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A94EFF-8D52-8E44-97F9-FEE5FC319529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
-    <sheet name="Лабы" sheetId="2" r:id="rId2"/>
-    <sheet name="Практические" sheetId="3" r:id="rId3"/>
+    <sheet name="Практические" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
     <author>Arkadiy Schneider</author>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{CB4795BC-0C39-C042-8166-CA8D0AA4F196}">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{CB4795BC-0C39-C042-8166-CA8D0AA4F196}">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="67">
   <si>
     <t>№</t>
   </si>
@@ -230,25 +229,58 @@
     <t>пр17</t>
   </si>
   <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Лаб 1 (3)</t>
-  </si>
-  <si>
-    <t>Лаб 2 (3)</t>
-  </si>
-  <si>
-    <t>Зачет (15)</t>
-  </si>
-  <si>
-    <t>Лаб 5 (5)</t>
-  </si>
-  <si>
-    <t>Лаб 4 (10)</t>
-  </si>
-  <si>
-    <t>Лаб 3 (15)</t>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>пр18</t>
+  </si>
+  <si>
+    <t>лаб1</t>
+  </si>
+  <si>
+    <t>лаб2</t>
+  </si>
+  <si>
+    <t>лаб3</t>
+  </si>
+  <si>
+    <t>лаб4</t>
+  </si>
+  <si>
+    <t>лаб5</t>
+  </si>
+  <si>
+    <t>лаб6</t>
+  </si>
+  <si>
+    <t>Разбаловка</t>
+  </si>
+  <si>
+    <t>Практические работы</t>
+  </si>
+  <si>
+    <t>3 балла</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №1</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №2</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №3</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №4</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №5</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №6</t>
+  </si>
+  <si>
+    <t>7 баллов</t>
   </si>
 </sst>
 </file>
@@ -283,15 +315,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -327,11 +377,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -343,13 +406,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,11 +763,11 @@
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="4"/>
+    <col min="12" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +798,7 @@
       <c r="J1" s="2">
         <v>45188</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>45190</v>
       </c>
       <c r="L1" s="2">
@@ -722,8 +807,14 @@
       <c r="M1" s="2">
         <v>45197</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="2">
+        <v>45198</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -754,7 +845,7 @@
       <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -763,8 +854,14 @@
       <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -795,7 +892,7 @@
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -804,8 +901,14 @@
       <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -836,7 +939,7 @@
       <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -845,8 +948,14 @@
       <c r="M4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -877,7 +986,7 @@
       <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -886,8 +995,14 @@
       <c r="M5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -918,7 +1033,7 @@
       <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -927,8 +1042,14 @@
       <c r="M6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -959,7 +1080,7 @@
       <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -968,8 +1089,14 @@
       <c r="M7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1000,7 +1127,7 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1009,8 +1136,14 @@
       <c r="M8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1041,7 +1174,7 @@
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1050,8 +1183,14 @@
       <c r="M9" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1082,7 +1221,7 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -1091,8 +1230,14 @@
       <c r="M10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1123,7 +1268,7 @@
       <c r="J11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1132,8 +1277,14 @@
       <c r="M11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1164,7 +1315,7 @@
       <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -1173,8 +1324,14 @@
       <c r="M12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1205,7 +1362,7 @@
       <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -1214,8 +1371,14 @@
       <c r="M13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1246,7 +1409,7 @@
       <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -1255,8 +1418,14 @@
       <c r="M14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1287,7 +1456,7 @@
       <c r="J15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1296,8 +1465,14 @@
       <c r="M15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1328,7 +1503,7 @@
       <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -1337,8 +1512,14 @@
       <c r="M16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1369,7 +1550,7 @@
       <c r="J17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -1378,8 +1559,14 @@
       <c r="M17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1410,7 +1597,7 @@
       <c r="J18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -1419,8 +1606,14 @@
       <c r="M18" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1451,7 +1644,7 @@
       <c r="J19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -1460,8 +1653,14 @@
       <c r="M19" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1492,7 +1691,7 @@
       <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -1501,8 +1700,14 @@
       <c r="M20" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1533,7 +1738,7 @@
       <c r="J21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -1542,8 +1747,14 @@
       <c r="M21" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1574,7 +1785,7 @@
       <c r="J22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -1583,8 +1794,14 @@
       <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1607,15 +1824,15 @@
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -1624,8 +1841,14 @@
       <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1656,7 +1879,7 @@
       <c r="J24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -1665,8 +1888,14 @@
       <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1697,7 +1926,7 @@
       <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -1706,8 +1935,14 @@
       <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1738,7 +1973,7 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -1747,8 +1982,14 @@
       <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1777,7 +2018,7 @@
       <c r="J27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -1786,8 +2027,14 @@
       <c r="M27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1818,13 +2065,19 @@
       <c r="J28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1837,603 +2090,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1026000-6AEF-9548-9667-9B2393ABF25D}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="AA1" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
-    <sortCondition ref="B1:B28"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
-  <dimension ref="A1:T28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="3">
-        <f t="shared" ref="T2:T28" si="0">SUM(C2:S2)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="3">
+        <f>SUM(C2:Z2)</f>
+        <v>21</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2443,73 +2260,111 @@
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3:AA28" si="0">SUM(C3:Z3)</f>
+        <v>21</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="3">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2519,38 +2374,55 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2560,38 +2432,55 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2601,38 +2490,55 @@
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2642,34 +2548,51 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2679,38 +2602,51 @@
       <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2720,36 +2656,49 @@
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2759,36 +2708,45 @@
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2798,38 +2756,51 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2839,36 +2810,49 @@
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2878,34 +2862,45 @@
       <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2913,30 +2908,39 @@
         <v>5</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3">
+        <v>3</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2946,36 +2950,51 @@
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2985,15 +3004,17 @@
       <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -3003,12 +3024,19 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3018,112 +3046,157 @@
       <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3">
+        <v>3</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3135,12 +3208,19 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="3">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3150,38 +3230,51 @@
       <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="3">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3189,28 +3282,39 @@
         <v>21</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="O23" s="3">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3220,38 +3324,51 @@
       <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3261,38 +3378,51 @@
       <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3">
+        <v>3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3302,75 +3432,97 @@
       <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3</v>
+      </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3</v>
-      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="3">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3380,41 +3532,57 @@
       <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>3</v>
-      </c>
-      <c r="H28" s="3">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>3</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>3</v>
+      </c>
+      <c r="O28" s="3">
+        <v>3</v>
+      </c>
+      <c r="P28" s="3">
+        <v>3</v>
+      </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T28">
     <sortCondition ref="B1:B28"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="AC2:AD2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A94EFF-8D52-8E44-97F9-FEE5FC319529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B0351-7029-384E-8D43-F793F4A85962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="67">
   <si>
     <t>№</t>
   </si>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -432,9 +432,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="132" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,12 +759,12 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,8 +810,14 @@
       <c r="O1" s="2">
         <v>45201</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="2">
+        <v>45202</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -860,8 +863,14 @@
       <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -905,10 +914,16 @@
         <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -954,8 +969,14 @@
       <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1001,8 +1022,14 @@
       <c r="O5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1048,8 +1075,14 @@
       <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1095,8 +1128,14 @@
       <c r="O7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1142,8 +1181,14 @@
       <c r="O8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1181,16 +1226,22 @@
         <v>27</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1236,8 +1287,14 @@
       <c r="O10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1283,8 +1340,14 @@
       <c r="O11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1330,8 +1393,14 @@
       <c r="O12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1377,8 +1446,14 @@
       <c r="O13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1424,8 +1499,14 @@
       <c r="O14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1471,8 +1552,14 @@
       <c r="O15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1518,8 +1605,14 @@
       <c r="O16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1565,8 +1658,14 @@
       <c r="O17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1612,8 +1711,14 @@
       <c r="O18" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1659,8 +1764,14 @@
       <c r="O19" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1680,10 +1791,10 @@
         <v>29</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>27</v>
@@ -1706,8 +1817,14 @@
       <c r="O20" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1753,8 +1870,14 @@
       <c r="O21" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1800,8 +1923,14 @@
       <c r="O22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1847,8 +1976,14 @@
       <c r="O23" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1894,8 +2029,14 @@
       <c r="O24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1941,8 +2082,14 @@
       <c r="O25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1988,8 +2135,14 @@
       <c r="O26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2033,8 +2186,14 @@
       <c r="O27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2078,6 +2237,12 @@
         <v>27</v>
       </c>
       <c r="O28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2097,7 +2262,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2400,7 +2565,9 @@
       <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>3</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -2413,7 +2580,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>61</v>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370B0351-7029-384E-8D43-F793F4A85962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EADC619-9300-2947-BB80-96A9626E18E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>7 баллов</t>
+  </si>
+  <si>
+    <t>Ат1</t>
+  </si>
+  <si>
+    <t>Ат2</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -748,23 +785,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView zoomScale="213" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,8 +855,31 @@
       <c r="Q1" s="2">
         <v>45204</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="2">
+        <v>45208</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45211</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45212</v>
+      </c>
+      <c r="U1" s="2">
+        <v>45215</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -869,8 +931,31 @@
       <c r="Q2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -922,8 +1007,31 @@
       <c r="Q3" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -975,8 +1083,31 @@
       <c r="Q4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1028,8 +1159,31 @@
       <c r="Q5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1081,8 +1235,31 @@
       <c r="Q6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1134,8 +1311,31 @@
       <c r="Q7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1187,8 +1387,31 @@
       <c r="Q8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1240,8 +1463,31 @@
       <c r="Q9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1293,8 +1539,31 @@
       <c r="Q10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1346,8 +1615,31 @@
       <c r="Q11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1394,13 +1686,36 @@
         <v>27</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1452,8 +1767,31 @@
       <c r="Q13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1505,8 +1843,31 @@
       <c r="Q14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1558,8 +1919,31 @@
       <c r="Q15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1611,8 +1995,31 @@
       <c r="Q16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1647,25 +2054,48 @@
         <v>27</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1717,8 +2147,31 @@
       <c r="Q18" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1770,8 +2223,31 @@
       <c r="Q19" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1823,8 +2299,31 @@
       <c r="Q20" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1876,8 +2375,31 @@
       <c r="Q21" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1929,8 +2451,31 @@
       <c r="Q22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1982,8 +2527,31 @@
       <c r="Q23" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2035,8 +2603,31 @@
       <c r="Q24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2088,8 +2679,31 @@
       <c r="Q25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2141,15 +2755,40 @@
       <c r="Q26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2192,8 +2831,31 @@
       <c r="Q27" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2245,40 +2907,78 @@
       <c r="Q28" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="R28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
     <sortCondition ref="B1:B28"/>
   </sortState>
+  <conditionalFormatting sqref="A2:XFD28">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2358,10 +3058,16 @@
         <v>50</v>
       </c>
       <c r="AA1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2371,11 +3077,11 @@
       <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>3</v>
       </c>
@@ -2394,10 +3100,18 @@
       <c r="N2" s="3">
         <v>3</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="O2" s="3">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3</v>
+      </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2407,15 +3121,20 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="3">
-        <f>SUM(C2:Z2)</f>
-        <v>21</v>
-      </c>
-      <c r="AC2" s="14" t="s">
+        <f>SUM(C2:D2,I2:R2)</f>
+        <v>33</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3">
+        <f t="shared" ref="AC2:AC28" si="0">SUM(C2:Z2)</f>
+        <v>33</v>
+      </c>
+      <c r="AF2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" s="14"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AG2" s="14"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2425,11 +3144,11 @@
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>3</v>
       </c>
@@ -2449,9 +3168,15 @@
         <v>3</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="P3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -2461,17 +3186,22 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA28" si="0">SUM(C3:Z3)</f>
-        <v>21</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+        <f t="shared" ref="AA3:AA28" si="1">SUM(C3:D3,I3:R3)</f>
+        <v>30</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2479,11 +3209,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>3</v>
       </c>
@@ -2519,17 +3251,22 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2539,11 +3276,13 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>3</v>
       </c>
@@ -2568,8 +3307,12 @@
       <c r="P5" s="3">
         <v>3</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -2579,17 +3322,22 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AC5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2599,11 +3347,13 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -2628,8 +3378,12 @@
       <c r="P6" s="3">
         <v>3</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3">
+        <v>3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>3</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -2639,15 +3393,20 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AC6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2657,11 +3416,11 @@
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3">
         <v>3</v>
       </c>
@@ -2686,8 +3445,12 @@
       <c r="P7" s="3">
         <v>3</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="3">
+        <v>3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -2697,15 +3460,20 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AC7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2715,11 +3483,11 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3">
         <v>3</v>
       </c>
@@ -2739,9 +3507,15 @@
       <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="P8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -2751,15 +3525,20 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AC8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2769,11 +3548,13 @@
       <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3">
         <v>3</v>
       </c>
@@ -2792,10 +3573,18 @@
       <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -2805,15 +3594,20 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AC9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2823,11 +3617,11 @@
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>3</v>
       </c>
@@ -2861,11 +3655,16 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2875,11 +3674,11 @@
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
         <v>3</v>
       </c>
@@ -2909,11 +3708,16 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2923,11 +3727,11 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
         <v>3</v>
       </c>
@@ -2952,8 +3756,12 @@
       <c r="P12" s="3">
         <v>3</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="3">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2963,11 +3771,16 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2977,11 +3790,11 @@
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3">
         <v>3</v>
       </c>
@@ -3004,8 +3817,12 @@
         <v>3</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="3">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3">
+        <v>3</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -3015,11 +3832,16 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3029,11 +3851,11 @@
       <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
         <v>3</v>
       </c>
@@ -3051,9 +3873,15 @@
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="P14" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -3063,11 +3891,16 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3075,11 +3908,11 @@
         <v>5</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
         <v>2</v>
@@ -3103,11 +3936,16 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3117,11 +3955,11 @@
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3">
         <v>3</v>
       </c>
@@ -3146,8 +3984,12 @@
       <c r="P16" s="3">
         <v>3</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="Q16" s="3">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3157,11 +3999,16 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3171,25 +4018,37 @@
       <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3">
         <v>3</v>
       </c>
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="Q17" s="3">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -3199,11 +4058,16 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3213,11 +4077,11 @@
       <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3">
         <v>3</v>
       </c>
@@ -3236,10 +4100,18 @@
       <c r="N18" s="3">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>3</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -3249,11 +4121,16 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3261,11 +4138,11 @@
         <v>13</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3">
         <v>3</v>
       </c>
@@ -3297,11 +4174,16 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3309,11 +4191,11 @@
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3">
         <v>3</v>
       </c>
@@ -3332,10 +4214,18 @@
       <c r="N20" s="3">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="O20" s="3">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -3345,11 +4235,16 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3359,20 +4254,38 @@
       <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>3</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3383,11 +4296,16 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3397,11 +4315,13 @@
       <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="D22" s="3">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>3</v>
       </c>
@@ -3426,8 +4346,12 @@
       <c r="P22" s="3">
         <v>3</v>
       </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="Q22" s="3">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>3</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -3437,11 +4361,16 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3449,15 +4378,25 @@
         <v>21</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="D23" s="3">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
@@ -3466,8 +4405,12 @@
       <c r="P23" s="3">
         <v>3</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="Q23" s="3">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -3477,11 +4420,16 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3491,11 +4439,13 @@
       <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3">
         <v>3</v>
       </c>
@@ -3520,8 +4470,12 @@
       <c r="P24" s="3">
         <v>3</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="Q24" s="3">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -3531,11 +4485,16 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3545,11 +4504,13 @@
       <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="D25" s="3">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
         <v>3</v>
       </c>
@@ -3574,8 +4535,12 @@
       <c r="P25" s="3">
         <v>3</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="Q25" s="3">
+        <v>3</v>
+      </c>
+      <c r="R25" s="3">
+        <v>3</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -3585,11 +4550,16 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3599,11 +4569,13 @@
       <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="D26" s="3">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3">
         <v>3</v>
       </c>
@@ -3628,8 +4600,12 @@
       <c r="P26" s="3">
         <v>3</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="Q26" s="3">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3639,11 +4615,16 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3653,13 +4634,17 @@
       <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3</v>
+      </c>
       <c r="K27" s="3">
         <v>3</v>
       </c>
@@ -3672,9 +4657,15 @@
       <c r="N27" s="3">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="O27" s="3">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3</v>
+      </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -3685,11 +4676,16 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3699,11 +4695,11 @@
       <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3">
         <v>3</v>
       </c>
@@ -3728,8 +4724,12 @@
       <c r="P28" s="3">
         <v>3</v>
       </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="Q28" s="3">
+        <v>3</v>
+      </c>
+      <c r="R28" s="3">
+        <v>3</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -3739,8 +4739,13 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +4753,7 @@
     <sortCondition ref="B1:B28"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EADC619-9300-2947-BB80-96A9626E18E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F97E699-7AFB-D243-8CC0-0AF2407019B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -787,11 +787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView zoomScale="213" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,6 +801,8 @@
     <col min="3" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -867,11 +869,13 @@
       <c r="U1" s="2">
         <v>45215</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="V1" s="2">
+        <v>45218</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -943,11 +947,13 @@
       <c r="U2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="V2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1019,11 +1025,13 @@
       <c r="U3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="V3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1095,11 +1103,13 @@
       <c r="U4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="V4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1171,11 +1181,13 @@
       <c r="U5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="V5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1247,11 +1259,13 @@
       <c r="U6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="V6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -1323,11 +1337,13 @@
       <c r="U7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="V7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -1399,11 +1415,13 @@
       <c r="U8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="V8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1475,11 +1493,13 @@
       <c r="U9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="V9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -1551,11 +1571,13 @@
       <c r="U10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="V10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1627,11 +1649,13 @@
       <c r="U11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="V11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -1703,11 +1727,13 @@
       <c r="U12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="V12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -1779,11 +1805,13 @@
       <c r="U13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="V13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -1855,11 +1883,13 @@
       <c r="U14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="V14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -1931,11 +1961,13 @@
       <c r="U15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="V15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -2007,11 +2039,13 @@
       <c r="U16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="V16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -2083,11 +2117,13 @@
       <c r="U17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="V17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -2159,11 +2195,13 @@
       <c r="U18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="V18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -2235,11 +2273,13 @@
       <c r="U19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="V19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -2311,11 +2351,13 @@
       <c r="U20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="V20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -2387,11 +2429,13 @@
       <c r="U21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="V21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -2463,11 +2507,13 @@
       <c r="U22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="V22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -2539,11 +2585,13 @@
       <c r="U23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="V23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -2615,11 +2663,13 @@
       <c r="U24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="V24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -2691,11 +2741,13 @@
       <c r="U25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="V25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -2767,11 +2819,13 @@
       <c r="U26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="V26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -2843,11 +2897,13 @@
       <c r="U27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="V27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -2919,11 +2975,13 @@
       <c r="U28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="V28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -2954,11 +3012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F97E699-7AFB-D243-8CC0-0AF2407019B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5659A17-1637-6349-8D05-ABB6348C62EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -787,11 +787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="172" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,8 +801,8 @@
     <col min="3" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="10.83203125" style="4"/>
+    <col min="22" max="24" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -872,9 +872,15 @@
       <c r="V1" s="2">
         <v>45218</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="W1" s="2">
+        <v>45222</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45225</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>45226</v>
+      </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -950,9 +956,15 @@
       <c r="V2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -1028,9 +1040,15 @@
       <c r="V3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -1106,9 +1124,15 @@
       <c r="V4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -1184,9 +1208,15 @@
       <c r="V5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1262,9 +1292,15 @@
       <c r="V6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="W6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -1340,9 +1376,15 @@
       <c r="V7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1418,9 +1460,15 @@
       <c r="V8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1496,9 +1544,15 @@
       <c r="V9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1574,9 +1628,15 @@
       <c r="V10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1652,9 +1712,15 @@
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -1730,9 +1796,15 @@
       <c r="V12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1808,9 +1880,15 @@
       <c r="V13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1886,9 +1964,15 @@
       <c r="V14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="W14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1964,9 +2048,15 @@
       <c r="V15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -2042,9 +2132,15 @@
       <c r="V16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -2120,9 +2216,15 @@
       <c r="V17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -2198,9 +2300,15 @@
       <c r="V18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="W18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2276,9 +2384,15 @@
       <c r="V19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2354,9 +2468,15 @@
       <c r="V20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2432,9 +2552,15 @@
       <c r="V21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -2510,9 +2636,15 @@
       <c r="V22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -2588,9 +2720,15 @@
       <c r="V23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="W23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -2666,9 +2804,15 @@
       <c r="V24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -2744,9 +2888,15 @@
       <c r="V25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -2822,9 +2972,15 @@
       <c r="V26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2900,9 +3056,15 @@
       <c r="V27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -2978,9 +3140,15 @@
       <c r="V28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -3012,11 +3180,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3135,7 +3303,9 @@
       <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>7</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3170,8 +3340,12 @@
       <c r="R2" s="3">
         <v>3</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="3">
+        <v>3</v>
+      </c>
+      <c r="T2" s="3">
+        <v>3</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -3180,12 +3354,15 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="3">
         <f>SUM(C2:D2,I2:R2)</f>
-        <v>33</v>
-      </c>
-      <c r="AB2" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>SUM(E2:H2,S2:Z2)</f>
+        <v>6</v>
+      </c>
       <c r="AC2" s="3">
         <f t="shared" ref="AC2:AC28" si="0">SUM(C2:Z2)</f>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>57</v>
@@ -3202,7 +3379,9 @@
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3235,8 +3414,12 @@
       <c r="R3" s="3">
         <v>3</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="3">
+        <v>3</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -3245,12 +3428,15 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="3">
         <f t="shared" ref="AA3:AA28" si="1">SUM(C3:D3,I3:R3)</f>
-        <v>30</v>
-      </c>
-      <c r="AB3" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" ref="AB3:AB28" si="2">SUM(E3:H3,S3:Z3)</f>
+        <v>6</v>
+      </c>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>58</v>
@@ -3300,8 +3486,12 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="3">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -3312,10 +3502,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AB4" s="3"/>
+      <c r="AB4" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>60</v>
@@ -3371,8 +3564,12 @@
       <c r="R5" s="3">
         <v>3</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="3">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -3383,10 +3580,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AB5" s="3"/>
+      <c r="AB5" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>61</v>
@@ -3442,7 +3642,9 @@
       <c r="R6" s="3">
         <v>3</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -3454,10 +3656,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AB6" s="3"/>
+      <c r="AB6" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AC6" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>62</v>
@@ -3509,7 +3714,9 @@
       <c r="R7" s="3">
         <v>3</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3">
+        <v>3</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -3521,10 +3728,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AB7" s="3"/>
+      <c r="AB7" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AC7" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>63</v>
@@ -3541,7 +3751,9 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3574,7 +3786,9 @@
       <c r="R8" s="3">
         <v>3</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3">
+        <v>3</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -3584,12 +3798,15 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AB8" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AC8" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>64</v>
@@ -3609,7 +3826,9 @@
       <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -3643,8 +3862,12 @@
       <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="3">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -3655,10 +3878,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AB9" s="3"/>
+      <c r="AB9" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC9" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>65</v>
@@ -3675,7 +3901,9 @@
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3701,11 +3929,21 @@
       <c r="O10" s="3">
         <v>3</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
+        <v>3</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -3714,12 +3952,15 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="3">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AB10" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC10" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -3769,7 +4010,10 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AB11" s="3"/>
+      <c r="AB11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AC11" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3785,7 +4029,9 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3820,8 +4066,12 @@
       <c r="R12" s="3">
         <v>3</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="3">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -3830,12 +4080,15 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AB12" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB12" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC12" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -3848,7 +4101,9 @@
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>7</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3882,7 +4137,9 @@
         <v>3</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3">
+        <v>3</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -3891,12 +4148,15 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AB13" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AC13" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -3929,8 +4189,12 @@
       <c r="M14" s="3">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
       <c r="P14" s="3">
         <v>3</v>
       </c>
@@ -3950,12 +4214,15 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AB14" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AC14" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -3997,7 +4264,10 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AB15" s="3"/>
+      <c r="AB15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AC15" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4013,7 +4283,9 @@
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>7</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4048,8 +4320,12 @@
       <c r="R16" s="3">
         <v>3</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="3">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3">
+        <v>3</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -4058,12 +4334,15 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AB16" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -4076,7 +4355,9 @@
       <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>7</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4099,16 +4380,24 @@
       <c r="N17" s="3">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3</v>
+      </c>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
       <c r="R17" s="3">
         <v>2</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="3">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -4117,12 +4406,15 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="3">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="AB17" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC17" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -4135,7 +4427,9 @@
       <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>7</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4170,8 +4464,12 @@
       <c r="R18" s="3">
         <v>3</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="3">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>3</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -4180,12 +4478,15 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AB18" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC18" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -4196,7 +4497,9 @@
         <v>13</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4233,12 +4536,15 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AB19" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="AB19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AC19" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -4284,8 +4590,12 @@
       <c r="R20" s="3">
         <v>3</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="3">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>3</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -4296,10 +4606,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AB20" s="3"/>
+      <c r="AB20" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC20" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -4357,7 +4670,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AB21" s="3"/>
+      <c r="AB21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AC21" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4410,8 +4726,12 @@
       <c r="R22" s="3">
         <v>3</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="S22" s="3">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
+        <v>3</v>
+      </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -4422,10 +4742,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AB22" s="3"/>
+      <c r="AB22" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC22" s="3">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -4469,8 +4792,12 @@
       <c r="R23" s="3">
         <v>3</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="3">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3">
+        <v>3</v>
+      </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -4481,10 +4808,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AB23" s="3"/>
+      <c r="AB23" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC23" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -4534,8 +4864,12 @@
       <c r="R24" s="3">
         <v>3</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="3">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3">
+        <v>3</v>
+      </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -4546,10 +4880,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AB24" s="3"/>
+      <c r="AB24" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC24" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -4565,7 +4902,9 @@
       <c r="D25" s="3">
         <v>7</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -4599,8 +4938,12 @@
       <c r="R25" s="3">
         <v>3</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="S25" s="3">
+        <v>3</v>
+      </c>
+      <c r="T25" s="3">
+        <v>3</v>
+      </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -4611,10 +4954,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AB25" s="3"/>
+      <c r="AB25" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -4664,8 +5010,12 @@
       <c r="R26" s="3">
         <v>3</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="3">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
+        <v>3</v>
+      </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -4676,10 +5026,13 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -4737,7 +5090,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AB27" s="3"/>
+      <c r="AB27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AC27" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4753,7 +5109,9 @@
       <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>7</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4788,7 +5146,9 @@
       <c r="R28" s="3">
         <v>3</v>
       </c>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3">
+        <v>3</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -4798,12 +5158,15 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AB28" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="AB28" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AC28" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5659A17-1637-6349-8D05-ABB6348C62EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79606B5B-B19D-194D-AB47-2B3F8DC06B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -788,10 +788,10 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView zoomScale="172" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,8 +801,8 @@
     <col min="3" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.83203125" style="4"/>
+    <col min="22" max="25" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -881,7 +881,9 @@
       <c r="Y1" s="2">
         <v>45226</v>
       </c>
-      <c r="Z1" s="3"/>
+      <c r="Z1" s="2">
+        <v>45229</v>
+      </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -965,7 +967,9 @@
       <c r="Y2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1049,7 +1053,9 @@
       <c r="Y3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1133,7 +1139,9 @@
       <c r="Y4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1217,7 +1225,9 @@
       <c r="Y5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1301,7 +1311,9 @@
       <c r="Y6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="3"/>
+      <c r="Z6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -1385,7 +1397,9 @@
       <c r="Y7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="3"/>
+      <c r="Z7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -1469,7 +1483,9 @@
       <c r="Y8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="3"/>
+      <c r="Z8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1553,7 +1569,9 @@
       <c r="Y9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -1637,7 +1655,9 @@
       <c r="Y10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="3"/>
+      <c r="Z10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1721,7 +1741,9 @@
       <c r="Y11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -1805,7 +1827,9 @@
       <c r="Y12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -1889,7 +1913,9 @@
       <c r="Y13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z13" s="3"/>
+      <c r="Z13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -1973,7 +1999,9 @@
       <c r="Y14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z14" s="3"/>
+      <c r="Z14" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -2057,7 +2085,9 @@
       <c r="Y15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z15" s="3"/>
+      <c r="Z15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -2141,7 +2171,9 @@
       <c r="Y16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" s="3"/>
+      <c r="Z16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -2225,7 +2257,9 @@
       <c r="Y17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -2309,7 +2343,9 @@
       <c r="Y18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -2393,7 +2429,9 @@
       <c r="Y19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="3"/>
+      <c r="Z19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -2477,7 +2515,9 @@
       <c r="Y20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z20" s="3"/>
+      <c r="Z20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -2561,7 +2601,9 @@
       <c r="Y21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z21" s="3"/>
+      <c r="Z21" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -2645,7 +2687,9 @@
       <c r="Y22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z22" s="3"/>
+      <c r="Z22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -2729,7 +2773,9 @@
       <c r="Y23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z23" s="3"/>
+      <c r="Z23" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -2813,7 +2859,9 @@
       <c r="Y24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -2897,7 +2945,9 @@
       <c r="Y25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z25" s="3"/>
+      <c r="Z25" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -2981,7 +3031,9 @@
       <c r="Y26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" s="3"/>
+      <c r="Z26" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -3065,7 +3117,9 @@
       <c r="Y27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z27" s="3"/>
+      <c r="Z27" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -3149,7 +3203,9 @@
       <c r="Y28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z28" s="3"/>
+      <c r="Z28" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -3184,7 +3240,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3484,8 +3540,12 @@
       <c r="P4" s="3">
         <v>3</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>3</v>
+      </c>
       <c r="S4" s="3">
         <v>3</v>
       </c>
@@ -3500,7 +3560,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="3">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="2"/>
@@ -3508,7 +3568,7 @@
       </c>
       <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>60</v>
@@ -3530,7 +3590,9 @@
       <c r="D5" s="3">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3570,7 +3632,9 @@
       <c r="T5" s="3">
         <v>3</v>
       </c>
-      <c r="U5" s="3"/>
+      <c r="U5" s="3">
+        <v>3</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -3582,11 +3646,11 @@
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>61</v>
@@ -3608,7 +3672,9 @@
       <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -3679,7 +3745,9 @@
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>7</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3718,7 +3786,9 @@
         <v>3</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3">
+        <v>3</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -3726,15 +3796,15 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>63</v>
@@ -3789,7 +3859,9 @@
       <c r="S8" s="3">
         <v>3</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3">
+        <v>3</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -3802,11 +3874,11 @@
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>64</v>
@@ -3868,7 +3940,9 @@
       <c r="T9" s="3">
         <v>3</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3">
+        <v>3</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -3880,11 +3954,11 @@
       </c>
       <c r="AB9" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>65</v>
@@ -3944,7 +4018,9 @@
       <c r="T10" s="3">
         <v>3</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3">
+        <v>3</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -3956,11 +4032,11 @@
       </c>
       <c r="AB10" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -4072,7 +4148,9 @@
       <c r="T12" s="3">
         <v>3</v>
       </c>
-      <c r="U12" s="3"/>
+      <c r="U12" s="3">
+        <v>3</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -4084,11 +4162,11 @@
       </c>
       <c r="AB12" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -4140,7 +4218,9 @@
       <c r="T13" s="3">
         <v>3</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3">
+        <v>3</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -4152,11 +4232,11 @@
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -4326,7 +4406,9 @@
       <c r="T16" s="3">
         <v>3</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3">
+        <v>3</v>
+      </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -4338,11 +4420,11 @@
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -4398,7 +4480,9 @@
       <c r="T17" s="3">
         <v>3</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3">
+        <v>3</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -4410,11 +4494,11 @@
       </c>
       <c r="AB17" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -4510,7 +4594,9 @@
       <c r="J19" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3">
         <v>3</v>
@@ -4536,7 +4622,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="2"/>
@@ -4544,7 +4630,7 @@
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -4596,7 +4682,9 @@
       <c r="T20" s="3">
         <v>3</v>
       </c>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3">
+        <v>3</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -4608,11 +4696,11 @@
       </c>
       <c r="AB20" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -4692,7 +4780,9 @@
       <c r="D22" s="3">
         <v>9</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -4732,7 +4822,9 @@
       <c r="T22" s="3">
         <v>3</v>
       </c>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3">
+        <v>3</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -4744,11 +4836,11 @@
       </c>
       <c r="AB22" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -4944,7 +5036,9 @@
       <c r="T25" s="3">
         <v>3</v>
       </c>
-      <c r="U25" s="3"/>
+      <c r="U25" s="3">
+        <v>3</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -4956,11 +5050,11 @@
       </c>
       <c r="AB25" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -4976,7 +5070,9 @@
       <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -5016,7 +5112,9 @@
       <c r="T26" s="3">
         <v>3</v>
       </c>
-      <c r="U26" s="3"/>
+      <c r="U26" s="3">
+        <v>3</v>
+      </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -5028,11 +5126,11 @@
       </c>
       <c r="AB26" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -5112,7 +5210,9 @@
       <c r="D28" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79606B5B-B19D-194D-AB47-2B3F8DC06B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA62016-6AB6-7F40-B135-F033215F9729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -787,11 +787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="V13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomRight" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,8 +801,9 @@
     <col min="3" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="4"/>
+    <col min="22" max="26" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -884,12 +885,14 @@
       <c r="Z1" s="2">
         <v>45229</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
+      <c r="AA1" s="2">
+        <v>45232</v>
+      </c>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -970,12 +973,14 @@
       <c r="Z2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="AA2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1056,12 +1061,14 @@
       <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AA3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1142,12 +1149,14 @@
       <c r="Z4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AA4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1228,12 +1237,14 @@
       <c r="Z5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AA5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1314,12 +1325,14 @@
       <c r="Z6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AA6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1400,12 +1413,14 @@
       <c r="Z7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AA7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1486,12 +1501,14 @@
       <c r="Z8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
+      <c r="AA8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1572,12 +1589,14 @@
       <c r="Z9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AA9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1658,12 +1677,14 @@
       <c r="Z10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AA10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1744,12 +1765,14 @@
       <c r="Z11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
+      <c r="AA11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1830,12 +1853,14 @@
       <c r="Z12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="AA12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1916,12 +1941,14 @@
       <c r="Z13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AA13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2002,12 +2029,14 @@
       <c r="Z14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="AA14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2088,12 +2117,14 @@
       <c r="Z15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
+      <c r="AA15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2174,12 +2205,14 @@
       <c r="Z16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
+      <c r="AA16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -2260,12 +2293,14 @@
       <c r="Z17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
+      <c r="AA17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2346,12 +2381,14 @@
       <c r="Z18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
+      <c r="AA18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2432,12 +2469,14 @@
       <c r="Z19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
+      <c r="AA19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2518,12 +2557,14 @@
       <c r="Z20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
+      <c r="AA20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2604,12 +2645,14 @@
       <c r="Z21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
+      <c r="AA21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2690,12 +2733,14 @@
       <c r="Z22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
+      <c r="AA22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -2776,12 +2821,14 @@
       <c r="Z23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
+      <c r="AA23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -2862,12 +2909,14 @@
       <c r="Z24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
+      <c r="AA24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2948,12 +2997,14 @@
       <c r="Z25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
+      <c r="AA25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -3034,12 +3085,14 @@
       <c r="Z26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
+      <c r="AA26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -3120,12 +3173,14 @@
       <c r="Z27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
+      <c r="AA27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -3206,12 +3261,14 @@
       <c r="Z28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+      <c r="AA28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
@@ -3236,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA62016-6AB6-7F40-B135-F033215F9729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658BF04D-0E3D-6648-8197-0E10EBEA917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{F52D23F0-517B-5143-B07D-4EEB2C34C053}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
     <author>Arkadiy Schneider</author>
   </authors>
   <commentList>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{CB4795BC-0C39-C042-8166-CA8D0AA4F196}">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="71">
   <si>
     <t>№</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Ат2</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -784,17 +790,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B5B94-C6EF-8E49-9605-146E5B49E61F}">
-  <dimension ref="A1:AF28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA21" sqref="AA21"/>
+      <selection pane="bottomRight" activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -802,11 +808,10 @@
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="10.83203125" style="4"/>
+    <col min="27" max="32" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,13 +893,23 @@
       <c r="AA1" s="2">
         <v>45232</v>
       </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
+      <c r="AB1" s="2">
+        <v>45236</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>45239</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>45240</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>45243</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>45246</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -976,13 +991,23 @@
       <c r="AA2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AB2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1064,13 +1089,23 @@
       <c r="AA3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AB3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1152,13 +1187,23 @@
       <c r="AA4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AB4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1240,13 +1285,23 @@
       <c r="AA5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AB5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1328,13 +1383,23 @@
       <c r="AA6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AB6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1416,13 +1481,23 @@
       <c r="AA7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="AB7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1504,13 +1579,23 @@
       <c r="AA8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1592,13 +1677,23 @@
       <c r="AA9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1680,13 +1775,23 @@
       <c r="AA10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
+      <c r="AB10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1768,13 +1873,23 @@
       <c r="AA11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
+      <c r="AB11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1856,13 +1971,23 @@
       <c r="AA12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AB12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1944,13 +2069,26 @@
       <c r="AA13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AB13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2032,13 +2170,23 @@
       <c r="AA14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
+      <c r="AB14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2120,13 +2268,23 @@
       <c r="AA15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AB15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2208,11 +2366,21 @@
       <c r="AA16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+      <c r="AB16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -2296,11 +2464,21 @@
       <c r="AA17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="AB17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2384,11 +2562,21 @@
       <c r="AA18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+      <c r="AB18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2472,11 +2660,21 @@
       <c r="AA19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+      <c r="AB19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2560,11 +2758,21 @@
       <c r="AA20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2648,11 +2856,21 @@
       <c r="AA21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2736,11 +2954,21 @@
       <c r="AA22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
+      <c r="AB22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -2824,11 +3052,21 @@
       <c r="AA23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
+      <c r="AB23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -2912,11 +3150,21 @@
       <c r="AA24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
+      <c r="AB24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -3000,11 +3248,21 @@
       <c r="AA25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
+      <c r="AB25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -3088,11 +3346,21 @@
       <c r="AA26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
+      <c r="AB26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -3176,11 +3444,21 @@
       <c r="AA27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
+      <c r="AB27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -3264,11 +3542,21 @@
       <c r="AA28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
+      <c r="AB28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
@@ -3290,17 +3578,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4566D2A-BB27-E142-953A-C1A9A2BFEDB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="159" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -3459,7 +3747,9 @@
       <c r="T2" s="3">
         <v>3</v>
       </c>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3">
+        <v>3</v>
+      </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -3471,11 +3761,11 @@
       </c>
       <c r="AB2" s="3">
         <f>SUM(E2:H2,S2:Z2)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC2" s="3">
         <f t="shared" ref="AC2:AC28" si="0">SUM(C2:Z2)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>57</v>
@@ -3533,9 +3823,13 @@
       <c r="T3" s="3">
         <v>3</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3">
+        <v>3</v>
+      </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3">
+        <v>3</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="1"/>
@@ -3545,11 +3839,11 @@
       </c>
       <c r="AB3" s="3">
         <f t="shared" ref="AB3:AB28" si="2">SUM(E3:H3,S3:Z3)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>58</v>
@@ -3609,7 +3903,9 @@
       <c r="T4" s="3">
         <v>3</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="U4" s="3">
+        <v>3</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -3621,11 +3917,11 @@
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>60</v>
@@ -3650,7 +3946,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -3692,8 +3990,12 @@
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="3">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="1"/>
@@ -3703,11 +4005,11 @@
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>61</v>
@@ -3732,7 +4034,9 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
@@ -3768,10 +4072,14 @@
       <c r="S6" s="3">
         <v>3</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3">
+        <v>3</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3">
+        <v>3</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="1"/>
@@ -3781,11 +4089,11 @@
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>62</v>
@@ -3847,7 +4155,9 @@
         <v>3</v>
       </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3">
+        <v>3</v>
+      </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="1"/>
@@ -3857,11 +4167,11 @@
       </c>
       <c r="AB7" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>63</v>
@@ -3920,7 +4230,9 @@
         <v>3</v>
       </c>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3">
+        <v>2</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -3931,11 +4243,11 @@
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>64</v>
@@ -4000,8 +4312,12 @@
       <c r="U9" s="3">
         <v>3</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="V9" s="3">
+        <v>2</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="1"/>
@@ -4011,11 +4327,11 @@
       </c>
       <c r="AB9" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>65</v>
@@ -4035,7 +4351,9 @@
       <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4208,8 +4526,12 @@
       <c r="U12" s="3">
         <v>3</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="V12" s="3">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3">
+        <v>3</v>
+      </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="1"/>
@@ -4219,11 +4541,11 @@
       </c>
       <c r="AB12" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -4466,8 +4788,12 @@
       <c r="U16" s="3">
         <v>3</v>
       </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="3">
+        <v>3</v>
+      </c>
+      <c r="W16" s="3">
+        <v>3</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="1"/>
@@ -4477,11 +4803,11 @@
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -4611,7 +4937,9 @@
       <c r="T18" s="3">
         <v>3</v>
       </c>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3">
+        <v>3</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -4623,11 +4951,11 @@
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -4742,8 +5070,12 @@
       <c r="U20" s="3">
         <v>3</v>
       </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="V20" s="3">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
+        <v>3</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="1"/>
@@ -4753,11 +5085,11 @@
       </c>
       <c r="AB20" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -4840,7 +5172,9 @@
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
@@ -4911,7 +5245,9 @@
       <c r="D23" s="3">
         <v>7</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -4947,9 +5283,15 @@
       <c r="T23" s="3">
         <v>3</v>
       </c>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="U23" s="3">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3">
+        <v>3</v>
+      </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="1"/>
@@ -4959,11 +5301,11 @@
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -5019,8 +5361,12 @@
       <c r="T24" s="3">
         <v>3</v>
       </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="U24" s="3">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3">
+        <v>3</v>
+      </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -5031,11 +5377,11 @@
       </c>
       <c r="AB24" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -5096,8 +5442,12 @@
       <c r="U25" s="3">
         <v>3</v>
       </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="V25" s="3">
+        <v>2</v>
+      </c>
+      <c r="W25" s="3">
+        <v>3</v>
+      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="1"/>
@@ -5107,11 +5457,11 @@
       </c>
       <c r="AB25" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -5172,8 +5522,12 @@
       <c r="U26" s="3">
         <v>3</v>
       </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="V26" s="3">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3">
+        <v>2</v>
+      </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="1"/>
@@ -5183,11 +5537,11 @@
       </c>
       <c r="AB26" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -5232,7 +5586,9 @@
       <c r="Q27" s="3">
         <v>3</v>
       </c>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3">
+        <v>3</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -5243,7 +5599,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB27" s="3">
         <f t="shared" si="2"/>
@@ -5251,7 +5607,7 @@
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -5306,10 +5662,18 @@
       <c r="S28" s="3">
         <v>3</v>
       </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="T28" s="3">
+        <v>3</v>
+      </c>
+      <c r="U28" s="3">
+        <v>3</v>
+      </c>
+      <c r="V28" s="3">
+        <v>2</v>
+      </c>
+      <c r="W28" s="3">
+        <v>2</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="1"/>
@@ -5319,11 +5683,11 @@
       </c>
       <c r="AB28" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658BF04D-0E3D-6648-8197-0E10EBEA917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B74A2DF-3FEA-5043-97A3-D267B709994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
     <sheet name="Практические" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,52 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Arkadiy Schneider</author>
-  </authors>
-  <commentList>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arkadiy Schneider:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Сдал 1-4
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="67">
   <si>
     <t>№</t>
   </si>
@@ -223,18 +179,9 @@
     <t>пр15</t>
   </si>
   <si>
-    <t>пр16</t>
-  </si>
-  <si>
-    <t>пр17</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
-    <t>пр18</t>
-  </si>
-  <si>
     <t>лаб1</t>
   </si>
   <si>
@@ -290,16 +237,13 @@
   </si>
   <si>
     <t>±</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,19 +256,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -450,7 +381,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -478,6 +409,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -791,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG19" sqref="AG19"/>
+      <selection pane="bottomRight" activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,10 +746,11 @@
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +847,20 @@
       <c r="AF1" s="2">
         <v>45246</v>
       </c>
+      <c r="AG1" s="2">
+        <v>45250</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>45253</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>45254</v>
+      </c>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1001,13 +952,25 @@
         <v>29</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1093,19 +1056,31 @@
         <v>27</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1202,8 +1177,20 @@
       <c r="AF4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1300,8 +1287,20 @@
       <c r="AF5" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1398,8 +1397,20 @@
       <c r="AF6" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1485,19 +1496,31 @@
         <v>27</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1594,8 +1617,20 @@
       <c r="AF8" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1690,10 +1725,22 @@
         <v>29</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1788,10 +1835,22 @@
         <v>27</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1888,8 +1947,20 @@
       <c r="AF11" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1978,16 +2049,28 @@
         <v>27</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2084,11 +2167,20 @@
       <c r="AF13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG13" t="s">
-        <v>70</v>
-      </c>
+      <c r="AG13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2185,8 +2277,20 @@
       <c r="AF14" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2281,10 +2385,22 @@
         <v>29</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2370,7 +2486,7 @@
         <v>27</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD16" s="3" t="s">
         <v>27</v>
@@ -2379,10 +2495,22 @@
         <v>27</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2479,8 +2607,20 @@
       <c r="AF17" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2577,8 +2717,20 @@
       <c r="AF18" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2675,8 +2827,20 @@
       <c r="AF19" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2768,13 +2932,25 @@
         <v>27</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF20" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2871,8 +3047,20 @@
       <c r="AF21" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2964,13 +3152,25 @@
         <v>27</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3065,10 +3265,22 @@
         <v>27</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3165,8 +3377,20 @@
       <c r="AF24" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3261,10 +3485,22 @@
         <v>29</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3361,8 +3597,20 @@
       <c r="AF26" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3459,8 +3707,20 @@
       <c r="AF27" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AG27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3555,21 +3815,36 @@
         <v>27</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
     <sortCondition ref="B1:B28"/>
   </sortState>
   <conditionalFormatting sqref="A2:XFD28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"±"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3578,14 +3853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView zoomScale="159" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="144" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3613,22 +3888,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>32</v>
@@ -3675,23 +3950,17 @@
       <c r="W1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -3708,7 +3977,9 @@
         <v>7</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
@@ -3751,7 +4022,9 @@
         <v>3</v>
       </c>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3">
+        <v>3</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="1"/>
@@ -3761,14 +4034,14 @@
       </c>
       <c r="AB2" s="3">
         <f>SUM(E2:H2,S2:Z2)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="3">
         <f t="shared" ref="AC2:AC28" si="0">SUM(C2:Z2)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="14"/>
     </row>
@@ -3846,10 +4119,10 @@
         <v>49</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -3906,7 +4179,9 @@
       <c r="U4" s="3">
         <v>3</v>
       </c>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3">
+        <v>3</v>
+      </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -3917,17 +4192,17 @@
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -3943,13 +4218,15 @@
       <c r="D5" s="3">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>3</v>
@@ -4005,17 +4282,17 @@
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -4031,13 +4308,15 @@
       <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>3</v>
@@ -4075,8 +4354,12 @@
       <c r="T6" s="3">
         <v>3</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="U6" s="3">
+        <v>3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>3</v>
+      </c>
       <c r="W6" s="3">
         <v>3</v>
       </c>
@@ -4089,16 +4372,18 @@
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG6" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -4174,9 +4459,11 @@
         <v>49</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG7" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -4229,7 +4516,9 @@
       <c r="T8" s="3">
         <v>3</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3">
+        <v>3</v>
+      </c>
       <c r="V8" s="3">
         <v>2</v>
       </c>
@@ -4243,16 +4532,18 @@
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG8" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -4267,10 +4558,12 @@
       <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
@@ -4327,14 +4620,14 @@
       </c>
       <c r="AB9" s="3">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AG9" s="3"/>
     </row>
@@ -4351,8 +4644,8 @@
       <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
+      <c r="E10" s="3">
+        <v>5</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4407,11 +4700,11 @@
       </c>
       <c r="AB10" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -4484,8 +4777,12 @@
         <v>7</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
         <v>3</v>
@@ -4541,11 +4838,11 @@
       </c>
       <c r="AB12" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -4561,7 +4858,9 @@
       <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4611,11 +4910,11 @@
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -4746,8 +5045,12 @@
         <v>7</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
         <v>3</v>
@@ -4803,11 +5106,11 @@
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -4866,7 +5169,9 @@
       <c r="U17" s="3">
         <v>3</v>
       </c>
-      <c r="V17" s="3"/>
+      <c r="V17" s="3">
+        <v>3</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -4877,11 +5182,11 @@
       </c>
       <c r="AB17" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -4898,8 +5203,12 @@
         <v>7</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
         <v>3</v>
@@ -4941,7 +5250,9 @@
         <v>3</v>
       </c>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="W18" s="3">
+        <v>3</v>
+      </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="1"/>
@@ -4951,11 +5262,11 @@
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -5169,13 +5480,15 @@
       <c r="D22" s="3">
         <v>9</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="3"/>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>3</v>
@@ -5216,8 +5529,12 @@
       <c r="U22" s="3">
         <v>3</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="V22" s="3">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
+        <v>3</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="1"/>
@@ -5227,11 +5544,11 @@
       </c>
       <c r="AB22" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -5245,8 +5562,8 @@
       <c r="D23" s="3">
         <v>7</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
+      <c r="E23" s="3">
+        <v>5</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5301,11 +5618,11 @@
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -5321,8 +5638,12 @@
       <c r="D24" s="3">
         <v>7</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
@@ -5377,11 +5698,11 @@
       </c>
       <c r="AB24" s="3">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -5397,10 +5718,12 @@
       <c r="D25" s="3">
         <v>7</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
@@ -5457,11 +5780,11 @@
       </c>
       <c r="AB25" s="3">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -5477,8 +5800,8 @@
       <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>27</v>
+      <c r="E26" s="3">
+        <v>5</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5537,11 +5860,11 @@
       </c>
       <c r="AB26" s="3">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -5623,8 +5946,8 @@
       <c r="D28" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>27</v>
+      <c r="E28" s="3">
+        <v>5</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5683,11 +6006,11 @@
       </c>
       <c r="AB28" s="3">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5699,6 +6022,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B74A2DF-3FEA-5043-97A3-D267B709994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895CD77-AF85-FF4F-BA32-1200B8B7D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="59">
   <si>
     <t>№</t>
   </si>
@@ -200,43 +200,19 @@
     <t>лаб6</t>
   </si>
   <si>
-    <t>Разбаловка</t>
+    <t>±</t>
   </si>
   <si>
-    <t>Практические работы</t>
+    <t>лаб7</t>
   </si>
   <si>
-    <t>3 балла</t>
+    <t>лаб8</t>
   </si>
   <si>
-    <t>Лабораторная работа №1</t>
+    <t>Оценка</t>
   </si>
   <si>
-    <t>Лабораторная работа №2</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №3</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №4</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №5</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №6</t>
-  </si>
-  <si>
-    <t>7 баллов</t>
-  </si>
-  <si>
-    <t>Ат1</t>
-  </si>
-  <si>
-    <t>Ат2</t>
-  </si>
-  <si>
-    <t>±</t>
+    <t>Посещаемость</t>
   </si>
 </sst>
 </file>
@@ -284,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -320,24 +296,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -362,9 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,14 +334,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -729,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="143" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI12" sqref="AI12"/>
+      <selection pane="bottomRight" activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,11 +733,12 @@
     <col min="15" max="15" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="11" style="4"/>
+    <col min="27" max="37" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,11 +844,24 @@
       <c r="AI1" s="2">
         <v>45254</v>
       </c>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
+      <c r="AJ1" s="2">
+        <v>45257</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>45260</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>45264</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>45267</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>45268</v>
+      </c>
+      <c r="AO1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -952,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>29</v>
@@ -964,13 +965,26 @@
         <v>29</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1056,13 +1070,13 @@
         <v>27</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>29</v>
@@ -1076,11 +1090,24 @@
       <c r="AI3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
+      <c r="AJ3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1186,11 +1213,24 @@
       <c r="AI4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
+      <c r="AJ4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO4" s="3"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1296,11 +1336,24 @@
       <c r="AI5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
+      <c r="AJ5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1406,11 +1459,24 @@
       <c r="AI6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
+      <c r="AJ6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1496,31 +1562,44 @@
         <v>27</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AI7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
+      <c r="AJ7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1626,11 +1705,24 @@
       <c r="AI8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
+      <c r="AJ8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1722,13 +1814,13 @@
         <v>27</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH9" s="3" t="s">
         <v>27</v>
@@ -1736,11 +1828,24 @@
       <c r="AI9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
+      <c r="AJ9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1835,22 +1940,35 @@
         <v>27</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1948,7 +2066,7 @@
         <v>29</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>29</v>
@@ -1956,11 +2074,24 @@
       <c r="AI11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
+      <c r="AJ11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2049,28 +2180,41 @@
         <v>27</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AI12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
+      <c r="AJ12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2171,16 +2315,29 @@
         <v>27</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AI13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
+      <c r="AJ13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2286,11 +2443,24 @@
       <c r="AI14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
+      <c r="AJ14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2385,7 +2555,7 @@
         <v>29</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG15" s="3" t="s">
         <v>29</v>
@@ -2396,11 +2566,24 @@
       <c r="AI15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
+      <c r="AJ15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2486,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AD16" s="3" t="s">
         <v>27</v>
@@ -2495,22 +2678,35 @@
         <v>27</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
+      <c r="AJ16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2608,19 +2804,32 @@
         <v>27</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AI17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
+      <c r="AJ17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2718,19 +2927,32 @@
         <v>29</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2836,11 +3058,24 @@
       <c r="AI19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
+      <c r="AJ19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2932,13 +3167,13 @@
         <v>27</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AF20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH20" s="3" t="s">
         <v>29</v>
@@ -2946,11 +3181,24 @@
       <c r="AI20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
+      <c r="AJ20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3056,11 +3304,24 @@
       <c r="AI21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
+      <c r="AJ21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3152,25 +3413,38 @@
         <v>27</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AI22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
+      <c r="AJ22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3265,7 +3539,7 @@
         <v>27</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG23" s="3" t="s">
         <v>29</v>
@@ -3276,11 +3550,24 @@
       <c r="AI23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
+      <c r="AJ23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3386,11 +3673,24 @@
       <c r="AI24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
+      <c r="AJ24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3482,13 +3782,13 @@
         <v>27</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH25" s="3" t="s">
         <v>27</v>
@@ -3496,11 +3796,24 @@
       <c r="AI25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
+      <c r="AJ25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3606,11 +3919,24 @@
       <c r="AI26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
+      <c r="AJ26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3716,11 +4042,24 @@
       <c r="AI27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
+      <c r="AJ27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3815,10 +4154,10 @@
         <v>27</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AH28" s="3" t="s">
         <v>29</v>
@@ -3826,25 +4165,38 @@
       <c r="AI28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
+      <c r="AJ28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO28" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
     <sortCondition ref="B1:B28"/>
   </sortState>
   <conditionalFormatting sqref="A2:XFD28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"±"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3856,11 +4208,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3868,15 +4220,14 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3905,63 +4256,68 @@
       <c r="H1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="13" t="s">
+      <c r="Z1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="AB1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -3971,23 +4327,23 @@
         <v>15</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <v>3</v>
       </c>
@@ -4021,29 +4377,24 @@
       <c r="U2" s="3">
         <v>3</v>
       </c>
-      <c r="V2" s="3"/>
+      <c r="V2" s="3">
+        <v>3</v>
+      </c>
       <c r="W2" s="3">
         <v>3</v>
       </c>
       <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="3">
+        <v>3</v>
+      </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="3">
-        <f>SUM(C2:D2,I2:R2)</f>
-        <v>40</v>
-      </c>
-      <c r="AB2" s="3">
-        <f>SUM(E2:H2,S2:Z2)</f>
-        <v>15</v>
-      </c>
-      <c r="AC2" s="3">
-        <f t="shared" ref="AC2:AC28" si="0">SUM(C2:Z2)</f>
-        <v>55</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="14"/>
+        <f>SUM(C2:Z2)</f>
+        <v>70</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -4053,21 +4404,23 @@
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3">
         <v>3</v>
       </c>
@@ -4080,13 +4433,13 @@
       <c r="N3" s="3">
         <v>3</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
       <c r="P3" s="3">
         <v>3</v>
       </c>
-      <c r="Q3" s="3">
-        <v>3</v>
-      </c>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3">
         <v>3</v>
       </c>
@@ -4099,31 +4452,25 @@
       <c r="U3" s="3">
         <v>3</v>
       </c>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3">
+        <v>3</v>
+      </c>
       <c r="W3" s="3">
         <v>3</v>
       </c>
       <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="3">
+        <v>3</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA28" si="1">SUM(C3:D3,I3:R3)</f>
-        <v>37</v>
-      </c>
-      <c r="AB3" s="3">
-        <f t="shared" ref="AB3:AB28" si="2">SUM(E3:H3,S3:Z3)</f>
-        <v>12</v>
-      </c>
-      <c r="AC3" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" ref="AA3:AA28" si="0">SUM(C3:Z3)</f>
+        <v>71</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -4134,18 +4481,22 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3">
         <v>3</v>
       </c>
@@ -4182,28 +4533,22 @@
       <c r="V4" s="3">
         <v>3</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
+      <c r="X4" s="3">
+        <v>3</v>
+      </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AB4" s="3">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -4213,27 +4558,27 @@
         <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
       <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3">
         <v>3</v>
       </c>
@@ -4273,27 +4618,21 @@
       <c r="W5" s="3">
         <v>3</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="X5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>3</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB5" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -4303,27 +4642,27 @@
         <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
       <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3">
         <v>3</v>
       </c>
@@ -4363,27 +4702,21 @@
       <c r="W6" s="3">
         <v>3</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="X6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AC6" s="3">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -4393,21 +4726,21 @@
         <v>22</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3">
         <v>3</v>
       </c>
@@ -4435,7 +4768,9 @@
       <c r="S7" s="3">
         <v>3</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3">
+        <v>3</v>
+      </c>
       <c r="U7" s="3">
         <v>3</v>
       </c>
@@ -4444,26 +4779,18 @@
         <v>3</v>
       </c>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="Y7" s="3">
+        <v>3</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AC7" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AG7" s="4"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -4473,34 +4800,36 @@
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3">
         <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
       <c r="N8" s="3">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>3</v>
-      </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3">
         <v>3</v>
       </c>
@@ -4520,30 +4849,24 @@
         <v>3</v>
       </c>
       <c r="V8" s="3">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3">
         <v>2</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AB8" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AC8" s="3">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AG8" s="4"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -4553,25 +4876,27 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
       <c r="F9" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
       <c r="I9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3">
         <v>3</v>
       </c>
@@ -4606,30 +4931,26 @@
         <v>3</v>
       </c>
       <c r="V9" s="3">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3">
         <v>2</v>
       </c>
-      <c r="W9" s="3">
-        <v>3</v>
-      </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="3">
+        <v>3</v>
+      </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="AC9" s="3">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG9" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AG9" s="4"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -4639,23 +4960,25 @@
         <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3">
         <v>3</v>
       </c>
@@ -4689,23 +5012,26 @@
       <c r="U10" s="3">
         <v>3</v>
       </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="V10" s="3">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3</v>
+      </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AC10" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -4715,19 +5041,15 @@
         <v>30</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>3</v>
-      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3">
         <v>3</v>
       </c>
@@ -4737,8 +5059,12 @@
       <c r="M11" s="3">
         <v>3</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -4751,17 +5077,12 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="3">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -4771,25 +5092,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
       <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="3">
         <v>3</v>
       </c>
@@ -4829,21 +5150,20 @@
       <c r="W12" s="3">
         <v>3</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="X12" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>3</v>
+      </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="AC12" s="3">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -4853,23 +5173,23 @@
         <v>18</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3">
         <v>3</v>
       </c>
@@ -4885,37 +5205,36 @@
       <c r="O13" s="3">
         <v>3</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3">
+        <v>3</v>
+      </c>
       <c r="Q13" s="3">
         <v>3</v>
       </c>
-      <c r="R13" s="3">
-        <v>3</v>
-      </c>
-      <c r="S13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
+        <v>3</v>
+      </c>
       <c r="T13" s="3">
         <v>3</v>
       </c>
-      <c r="U13" s="3">
-        <v>3</v>
-      </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
+        <v>3</v>
+      </c>
+      <c r="W13" s="3">
+        <v>3</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AC13" s="3">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -4925,31 +5244,31 @@
         <v>23</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3">
         <v>3</v>
       </c>
       <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>2</v>
       </c>
-      <c r="M14" s="3">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>3</v>
-      </c>
       <c r="O14" s="3">
         <v>3</v>
       </c>
@@ -4957,13 +5276,17 @@
         <v>3</v>
       </c>
       <c r="Q14" s="3">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>2</v>
       </c>
-      <c r="R14" s="3">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="T14" s="3">
+        <v>3</v>
+      </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -4971,17 +5294,12 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="3">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -4997,17 +5315,17 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3">
-        <v>3</v>
-      </c>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="3">
+        <v>3</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -5019,17 +5337,12 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -5039,25 +5352,27 @@
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
       <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="3">
         <v>3</v>
       </c>
@@ -5097,23 +5412,22 @@
       <c r="W16" s="3">
         <v>3</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="X16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>3</v>
+      </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5121,21 +5435,17 @@
         <v>19</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3">
         <v>3</v>
       </c>
@@ -5158,38 +5468,37 @@
         <v>3</v>
       </c>
       <c r="R17" s="3">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
         <v>2</v>
       </c>
-      <c r="S17" s="3">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3">
-        <v>3</v>
-      </c>
       <c r="U17" s="3">
         <v>3</v>
       </c>
       <c r="V17" s="3">
         <v>3</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="W17" s="3">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3">
+        <v>3</v>
+      </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="3">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AC17" s="3">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5197,25 +5506,23 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3</v>
-      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3">
         <v>3</v>
       </c>
@@ -5249,27 +5556,26 @@
       <c r="U18" s="3">
         <v>3</v>
       </c>
-      <c r="V18" s="3"/>
+      <c r="V18" s="3">
+        <v>3</v>
+      </c>
       <c r="W18" s="3">
         <v>3</v>
       </c>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="Y18" s="3">
+        <v>3</v>
+      </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="AC18" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5278,36 +5584,36 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
       <c r="M19" s="3">
         <v>3</v>
       </c>
-      <c r="N19" s="3">
-        <v>3</v>
-      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="3">
         <v>3</v>
       </c>
       <c r="P19" s="3">
         <v>3</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="Q19" s="3">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3">
+        <v>3</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -5317,37 +5623,34 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="3">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>7</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3">
         <v>3</v>
       </c>
@@ -5387,23 +5690,22 @@
       <c r="W20" s="3">
         <v>3</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="X20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>3</v>
+      </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AC20" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5411,19 +5713,19 @@
         <v>26</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3</v>
-      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3">
         <v>3</v>
       </c>
@@ -5445,29 +5747,34 @@
       <c r="Q21" s="3">
         <v>3</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="R21" s="3">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
+        <v>3</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="X21" s="3">
+        <v>3</v>
+      </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AB21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5475,27 +5782,25 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3">
         <v>3</v>
       </c>
@@ -5535,23 +5840,22 @@
       <c r="W22" s="3">
         <v>3</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="X22" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>3</v>
+      </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="3">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AC22" s="3">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5560,34 +5864,38 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
         <v>7</v>
       </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="3">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
       <c r="I23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="3">
         <v>3</v>
       </c>
       <c r="L23" s="3">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3</v>
-      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3">
         <v>3</v>
       </c>
@@ -5609,23 +5917,22 @@
       <c r="W23" s="3">
         <v>3</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="X23" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>3</v>
+      </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="3">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AB23" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="AC23" s="3">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5633,25 +5940,21 @@
         <v>17</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
         <v>7</v>
       </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3</v>
-      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3">
         <v>3</v>
       </c>
@@ -5688,24 +5991,23 @@
       <c r="V24" s="3">
         <v>3</v>
       </c>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+      <c r="W24" s="3">
+        <v>3</v>
+      </c>
+      <c r="X24" s="3">
+        <v>3</v>
+      </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB24" s="3">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AC24" s="3">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5713,81 +6015,80 @@
         <v>7</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
         <v>7</v>
       </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
       <c r="F25" s="3">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3">
+        <v>3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>3</v>
+      </c>
+      <c r="R25" s="3">
+        <v>3</v>
+      </c>
+      <c r="S25" s="3">
+        <v>3</v>
+      </c>
+      <c r="T25" s="3">
+        <v>3</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3</v>
+      </c>
+      <c r="V25" s="3">
+        <v>3</v>
+      </c>
+      <c r="W25" s="3">
+        <v>3</v>
+      </c>
+      <c r="X25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>3</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3</v>
-      </c>
-      <c r="K25" s="3">
-        <v>3</v>
-      </c>
-      <c r="L25" s="3">
-        <v>3</v>
-      </c>
-      <c r="M25" s="3">
-        <v>3</v>
-      </c>
-      <c r="N25" s="3">
-        <v>3</v>
-      </c>
-      <c r="O25" s="3">
-        <v>3</v>
-      </c>
-      <c r="P25" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>3</v>
-      </c>
-      <c r="R25" s="3">
-        <v>3</v>
-      </c>
-      <c r="S25" s="3">
-        <v>3</v>
-      </c>
-      <c r="T25" s="3">
-        <v>3</v>
-      </c>
-      <c r="U25" s="3">
-        <v>3</v>
-      </c>
-      <c r="V25" s="3">
-        <v>2</v>
-      </c>
-      <c r="W25" s="3">
-        <v>3</v>
-      </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
+      <c r="Y25" s="3">
+        <v>3</v>
+      </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB25" s="3">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5795,23 +6096,27 @@
         <v>9</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="3">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
       <c r="I26" s="3">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3">
         <v>3</v>
       </c>
@@ -5849,25 +6154,24 @@
         <v>3</v>
       </c>
       <c r="W26" s="3">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3">
         <v>2</v>
       </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB26" s="3">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5875,19 +6179,23 @@
         <v>28</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3</v>
-      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3">
         <v>3</v>
       </c>
@@ -5912,28 +6220,37 @@
       <c r="R27" s="3">
         <v>3</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="S27" s="3">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>3</v>
+      </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="3">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AB27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5941,23 +6258,19 @@
         <v>25</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
         <v>7</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <v>3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>3</v>
-      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="3">
         <v>3</v>
       </c>
@@ -5992,35 +6305,42 @@
         <v>3</v>
       </c>
       <c r="V28" s="3">
+        <v>3</v>
+      </c>
+      <c r="W28" s="3">
+        <v>3</v>
+      </c>
+      <c r="X28" s="3">
         <v>2</v>
       </c>
-      <c r="W28" s="3">
+      <c r="Y28" s="3">
         <v>2</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB28" s="3">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="AC28" s="3">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T28">
     <sortCondition ref="B1:B28"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AA2:AA28">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>76</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+      <formula>61</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sem1/С-ПР-23.xlsx
+++ b/sem1/С-ПР-23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44024464-D6D1-674D-B245-6D6048E5A8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E74AD-BC14-F34F-BCCC-B7D3D73EE673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="61">
   <si>
     <t>№</t>
   </si>
@@ -212,7 +212,13 @@
     <t>Оценка</t>
   </si>
   <si>
-    <t>Посещаемость</t>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
   </si>
 </sst>
 </file>
@@ -718,11 +724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="159" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ15" sqref="AQ15"/>
+      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,8 +740,8 @@
     <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="37" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="11" style="4"/>
+    <col min="38" max="44" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
@@ -865,8 +871,12 @@
       <c r="AP1" s="2">
         <v>45274</v>
       </c>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
+      <c r="AQ1" s="2">
+        <v>45278</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>45281</v>
+      </c>
       <c r="AS1" s="3"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
@@ -996,8 +1006,12 @@
       <c r="AP2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
+      <c r="AQ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS2" s="3"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
@@ -1127,8 +1141,12 @@
       <c r="AP3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
+      <c r="AQ3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS3" s="3"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
@@ -1258,8 +1276,12 @@
       <c r="AP4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
+      <c r="AQ4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AS4" s="3"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -1389,8 +1411,12 @@
       <c r="AP5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
+      <c r="AQ5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AS5" s="3"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
@@ -1520,8 +1546,12 @@
       <c r="AP6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
+      <c r="AQ6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS6" s="3"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
@@ -1651,8 +1681,12 @@
       <c r="AP7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
+      <c r="AQ7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS7" s="3"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
@@ -1782,8 +1816,12 @@
       <c r="AP8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
+      <c r="AQ8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AS8" s="3"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
@@ -1913,8 +1951,12 @@
       <c r="AP9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
+      <c r="AQ9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS9" s="3"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
@@ -2044,8 +2086,12 @@
       <c r="AP10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
+      <c r="AQ10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS10" s="3"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
@@ -2146,7 +2192,7 @@
         <v>29</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>29</v>
@@ -2175,8 +2221,12 @@
       <c r="AP11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
+      <c r="AQ11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS11" s="3"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
@@ -2306,8 +2356,12 @@
       <c r="AP12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
+      <c r="AQ12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS12" s="3"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
@@ -2437,8 +2491,12 @@
       <c r="AP13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
+      <c r="AQ13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AS13" s="3"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
@@ -2568,8 +2626,12 @@
       <c r="AP14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
+      <c r="AQ14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS14" s="3"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -2699,8 +2761,12 @@
       <c r="AP15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
+      <c r="AQ15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="AS15" s="3"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
@@ -2830,8 +2896,12 @@
       <c r="AP16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
+      <c r="AQ16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR16" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS16" s="3"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
@@ -2961,8 +3031,12 @@
       <c r="AP17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
+      <c r="AQ17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS17" s="3"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
@@ -3087,13 +3161,17 @@
         <v>54</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="AQ18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS18" s="3"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
@@ -3223,8 +3301,12 @@
       <c r="AP19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
+      <c r="AQ19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AS19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
@@ -3354,8 +3436,12 @@
       <c r="AP20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
+      <c r="AQ20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="AS20" s="3"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
@@ -3485,8 +3571,12 @@
       <c r="AP21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
+      <c r="AQ21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS21" s="3"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
@@ -3616,8 +3706,12 @@
       <c r="AP22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
+      <c r="AQ22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="AS22" s="3"/>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
@@ -3747,8 +3841,12 @@
       <c r="AP23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
+      <c r="AQ23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS23" s="3"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
@@ -3878,8 +3976,12 @@
       <c r="AP24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
+      <c r="AQ24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AS24" s="3"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
@@ -4009,8 +4111,12 @@
       <c r="AP25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
+      <c r="AQ25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AS25" s="3"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
@@ -4140,8 +4246,12 @@
       <c r="AP26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
+      <c r="AQ26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
@@ -4271,8 +4381,12 @@
       <c r="AP27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
+      <c r="AQ27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR27" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS27" s="3"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
@@ -4402,8 +4516,12 @@
       <c r="AP28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
+      <c r="AQ28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR28" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AS28" s="3"/>
     </row>
   </sheetData>
@@ -4432,11 +4550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomRight" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4447,8 +4565,8 @@
     <col min="4" max="10" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
@@ -4532,12 +4650,9 @@
         <v>46</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="12" t="s">
         <v>57</v>
       </c>
       <c r="AC1" s="4"/>
@@ -4566,8 +4681,12 @@
       <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
       <c r="K2" s="3">
         <v>3</v>
       </c>
@@ -4611,12 +4730,13 @@
       <c r="Y2" s="3">
         <v>3</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="3">
-        <f>SUM(C2:Z2)</f>
-        <v>70</v>
-      </c>
-      <c r="AB2" s="1"/>
+      <c r="Z2" s="3">
+        <f>SUM(C2:Y2)</f>
+        <v>78</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
     </row>
@@ -4648,7 +4768,9 @@
       <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
       <c r="K3" s="3">
         <v>3</v>
       </c>
@@ -4690,12 +4812,12 @@
       <c r="Y3" s="3">
         <v>3</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA28" si="0">SUM(C3:Z3)</f>
-        <v>83</v>
-      </c>
-      <c r="AB3" s="3"/>
+      <c r="Z3" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AG3" s="4"/>
@@ -4723,8 +4845,12 @@
       <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
       <c r="K4" s="3">
         <v>3</v>
       </c>
@@ -4767,13 +4893,15 @@
       <c r="X4" s="3">
         <v>3</v>
       </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="3">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="AB4" s="3"/>
+      <c r="Y4" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AG4" s="4"/>
@@ -4854,12 +4982,13 @@
       <c r="Y5" s="3">
         <v>3</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="3">
-        <f t="shared" si="0"/>
+      <c r="Z5" s="3">
+        <f>SUM(C5:Y5)</f>
         <v>94</v>
       </c>
-      <c r="AB5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AG5" s="4"/>
@@ -4940,12 +5069,13 @@
       <c r="Y6" s="3">
         <v>3</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="3">
-        <f t="shared" si="0"/>
+      <c r="Z6" s="3">
+        <f>SUM(C6:Y6)</f>
         <v>94</v>
       </c>
-      <c r="AB6" s="3"/>
+      <c r="AA6" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AG6" s="4"/>
@@ -4976,7 +5106,9 @@
       <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
       <c r="K7" s="3">
         <v>3</v>
       </c>
@@ -5010,20 +5142,25 @@
       <c r="U7" s="3">
         <v>3</v>
       </c>
-      <c r="V7" s="3"/>
+      <c r="V7" s="3">
+        <v>3</v>
+      </c>
       <c r="W7" s="3">
         <v>3</v>
       </c>
-      <c r="X7" s="3"/>
+      <c r="X7" s="3">
+        <v>3</v>
+      </c>
       <c r="Y7" s="3">
         <v>3</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="AB7" s="3"/>
+      <c r="Z7" s="3">
+        <f>SUM(C7:Y7)</f>
+        <v>80</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AG7" s="4"/>
@@ -5051,8 +5188,12 @@
       <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
       <c r="K8" s="3">
         <v>3</v>
       </c>
@@ -5094,12 +5235,13 @@
         <v>2</v>
       </c>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AB8" s="3"/>
+      <c r="Z8" s="3">
+        <f>SUM(C8:Y8)</f>
+        <v>80</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AG8" s="4"/>
@@ -5178,12 +5320,12 @@
       <c r="Y9" s="3">
         <v>3</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="3">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="AB9" s="3"/>
+      <c r="Z9" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AG9" s="4"/>
@@ -5216,7 +5358,9 @@
       <c r="I10" s="3">
         <v>5</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
       <c r="K10" s="3">
         <v>3</v>
       </c>
@@ -5262,12 +5406,13 @@
       <c r="Y10" s="3">
         <v>3</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="3">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="AB10" s="1"/>
+      <c r="Z10" s="3">
+        <f>SUM(C10:Y10)</f>
+        <v>91</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
     </row>
@@ -5313,12 +5458,13 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="3">
-        <f t="shared" si="0"/>
+      <c r="Z11" s="3">
+        <f>SUM(C11:Y11)</f>
         <v>20</v>
       </c>
-      <c r="AB11" s="1"/>
+      <c r="AA11" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
     </row>
@@ -5396,12 +5542,12 @@
       <c r="Y12" s="3">
         <v>3</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="3">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="AB12" s="1"/>
+      <c r="Z12" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
     </row>
@@ -5428,7 +5574,9 @@
       <c r="H13" s="3">
         <v>5</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
         <v>3</v>
@@ -5467,12 +5615,12 @@
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="3">
+        <v>76</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
     </row>
@@ -5495,8 +5643,12 @@
         <v>5</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
       <c r="K14" s="3">
         <v>3</v>
       </c>
@@ -5532,12 +5684,12 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="AB14" s="1"/>
+      <c r="Z14" s="3">
+        <v>76</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
     </row>
@@ -5575,12 +5727,13 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AB15" s="1"/>
+      <c r="Z15" s="3">
+        <f>SUM(C15:Y15)</f>
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
@@ -5658,12 +5811,12 @@
       <c r="Y16" s="3">
         <v>3</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="3">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="AB16" s="1"/>
+      <c r="Z16" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
     </row>
@@ -5741,12 +5894,12 @@
       <c r="Y17" s="3">
         <v>3</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="3">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="AB17" s="1"/>
+      <c r="Z17" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
     </row>
@@ -5763,7 +5916,9 @@
       <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
       <c r="F18" s="3">
         <v>5</v>
       </c>
@@ -5773,8 +5928,12 @@
       <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
       <c r="K18" s="3">
         <v>3</v>
       </c>
@@ -5814,16 +5973,18 @@
       <c r="W18" s="3">
         <v>3</v>
       </c>
-      <c r="X18" s="3"/>
+      <c r="X18" s="3">
+        <v>3</v>
+      </c>
       <c r="Y18" s="3">
         <v>3</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AB18" s="1"/>
+      <c r="Z18" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
     </row>
@@ -5839,15 +6000,21 @@
         <v>10</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
       <c r="H19" s="3">
         <v>5</v>
       </c>
       <c r="I19" s="3">
         <v>5</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
       <c r="K19" s="3">
         <v>3</v>
       </c>
@@ -5874,19 +6041,23 @@
         <v>3</v>
       </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3">
+        <v>3</v>
+      </c>
       <c r="V19" s="3">
         <v>3</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3">
+        <v>3</v>
+      </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="3">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="AB19" s="1"/>
+      <c r="Z19" s="3">
+        <v>76</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
     </row>
@@ -5909,8 +6080,12 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
       <c r="K20" s="3">
         <v>3</v>
       </c>
@@ -5956,12 +6131,13 @@
       <c r="Y20" s="3">
         <v>3</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="AB20" s="1"/>
+      <c r="Z20" s="3">
+        <f t="shared" ref="Z20:Z28" si="0">SUM(C20:Y20)</f>
+        <v>77</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
     </row>
@@ -5983,9 +6159,15 @@
       <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
       <c r="K21" s="3">
         <v>3</v>
       </c>
@@ -6019,18 +6201,25 @@
       <c r="U21" s="3">
         <v>3</v>
       </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="V21" s="3">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
+        <v>3</v>
+      </c>
       <c r="X21" s="3">
         <v>3</v>
       </c>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="3">
+      <c r="Y21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="AB21" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
     </row>
@@ -6110,12 +6299,13 @@
       <c r="Y22" s="3">
         <v>3</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="3">
+      <c r="Z22" s="3">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="AB22" s="1"/>
+      <c r="AA22" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
     </row>
@@ -6145,7 +6335,9 @@
       <c r="I23" s="3">
         <v>5</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
       <c r="K23" s="3">
         <v>3</v>
       </c>
@@ -6187,12 +6379,13 @@
       <c r="Y23" s="3">
         <v>3</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="3">
+      <c r="Z23" s="3">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="AB23" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
     </row>
@@ -6224,7 +6417,9 @@
       <c r="I24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
       <c r="K24" s="3">
         <v>3</v>
       </c>
@@ -6268,12 +6463,13 @@
         <v>3</v>
       </c>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="3">
+      <c r="Z24" s="3">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="AB24" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
     </row>
@@ -6305,7 +6501,9 @@
       <c r="I25" s="3">
         <v>5</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <v>5</v>
+      </c>
       <c r="K25" s="3">
         <v>3</v>
       </c>
@@ -6351,12 +6549,13 @@
       <c r="Y25" s="3">
         <v>3</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="3">
+      <c r="Z25" s="3">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="AB25" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
     </row>
@@ -6388,7 +6587,9 @@
       <c r="I26" s="3">
         <v>5</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>5</v>
+      </c>
       <c r="K26" s="3">
         <v>3</v>
       </c>
@@ -6434,12 +6635,13 @@
       <c r="Y26" s="3">
         <v>2</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="3">
+      <c r="Z26" s="3">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="AB26" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
     </row>
@@ -6466,8 +6668,12 @@
       <c r="H27" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
       <c r="K27" s="3">
         <v>3</v>
       </c>
@@ -6513,12 +6719,13 @@
       <c r="Y27" s="3">
         <v>3</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="3">
+      <c r="Z27" s="3">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AB27" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
     </row>
@@ -6538,11 +6745,19 @@
       <c r="E28" s="3">
         <v>7</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="3">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3">
+        <v>5</v>
+      </c>
       <c r="K28" s="3">
         <v>3</v>
       </c>
@@ -6588,12 +6803,12 @@
       <c r="Y28" s="3">
         <v>2</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="AB28" s="1"/>
+      <c r="Z28" s="3">
+        <v>91</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
     </row>
@@ -6602,8 +6817,8 @@
     <sortCondition ref="B1:B28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AA2:AA28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="Z2:Z28">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>91</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
